--- a/hedtools/examples/data/hed3_tags_single_sheet.xlsx
+++ b/hedtools/examples/data/hed3_tags_single_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">Event code</t>
   </si>
@@ -40,22 +40,25 @@
     <t xml:space="preserve">Vehicle undergoes a perturbation to left.</t>
   </si>
   <si>
+    <t xml:space="preserve">Attribute/Sensory/Bisual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PerturbRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle undergoes a perturbation to right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensory event, (Awake ~ Age/15 ~ Siren, Vehicle, RGB Red/100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResponseOnset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject starts to respond to perturbation by steering vehicle back to center of the lane.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Event/Sensory event, (Participant/Cognitive state/Awake ~ Participant/Trait/Age/15 ~ Item/Sound/Siren, Item/Object/Manmade/Vehicle, Attribute/Sensory/Visual/Color/RGB color/RGB Red/100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PerturbRight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vehicle undergoes a perturbation to right.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensory event, (Awake ~ Age/15 ~ Siren, Vehicle, RGB Red/100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseOnset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject starts to respond to perturbation by steering vehicle back to center of the lane.</t>
   </si>
   <si>
     <t xml:space="preserve">ResponseOffset</t>
@@ -71,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -101,12 +104,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,7 +169,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -196,7 +193,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -222,7 +219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>251</v>
       </c>
@@ -261,7 +258,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,13 +266,13 @@
         <v>254</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/hedtools/examples/data/hed3_tags_single_sheet.xlsx
+++ b/hedtools/examples/data/hed3_tags_single_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Event code</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Vehicle undergoes a perturbation to left.</t>
   </si>
   <si>
-    <t xml:space="preserve">Attribute/Sensory/Bisual</t>
+    <t xml:space="preserve">Attribute/Sensory/Visual</t>
   </si>
   <si>
     <t xml:space="preserve">PerturbRight</t>
@@ -49,22 +49,7 @@
     <t xml:space="preserve">Vehicle undergoes a perturbation to right.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensory event, (Awake ~ Age/15 ~ Siren, Vehicle, RGB Red/100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseOnset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject starts to respond to perturbation by steering vehicle back to center of the lane.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event/Sensory event, (Participant/Cognitive state/Awake ~ Participant/Trait/Age/15 ~ Item/Sound/Siren, Item/Object/Manmade/Vehicle, Attribute/Sensory/Visual/Color/RGB color/RGB Red/100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseOffset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject completes response to perturbation having steered the vehicle back to the center of the lane.</t>
+    <t xml:space="preserve">Awake</t>
   </si>
 </sst>
 </file>
@@ -192,8 +177,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -233,7 +218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>252</v>
       </c>
@@ -247,34 +232,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="4" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
